--- a/medicine/Pharmacie/Bévantolol/Bévantolol.xlsx
+++ b/medicine/Pharmacie/Bévantolol/Bévantolol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9vantolol</t>
+          <t>Bévantolol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le bévantolol est une molécule anciennement candidate comme traitement contre l'angine de poitrine et l'hypertension qui agissait à la fois comme bêta-bloquant et inhibiteur calcique[1],[2]. Il a été découvert et développé par Warner-Lambert[3] (aujourd'hui racheté par Pfizer). Mais en janvier 1989 la société a annoncé qu'elle avait retiré sa demande d'autorisation de mise sur le marché, le président de la société ayant déclaré : « Qui a besoin du 30e bêta-bloquant[4] ? ». Il n'était toujours pas commercialisé en 2016 et les auteurs d'un rapport Cochrane n'ont pu trouver aucune monographie du bévantolol[5].
+Le bévantolol est une molécule anciennement candidate comme traitement contre l'angine de poitrine et l'hypertension qui agissait à la fois comme bêta-bloquant et inhibiteur calcique,. Il a été découvert et développé par Warner-Lambert (aujourd'hui racheté par Pfizer). Mais en janvier 1989 la société a annoncé qu'elle avait retiré sa demande d'autorisation de mise sur le marché, le président de la société ayant déclaré : « Qui a besoin du 30e bêta-bloquant ? ». Il n'était toujours pas commercialisé en 2016 et les auteurs d'un rapport Cochrane n'ont pu trouver aucune monographie du bévantolol.
 </t>
         </is>
       </c>
